--- a/Base/Backlog_30.xlsx
+++ b/Base/Backlog_30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69C6E3-87EC-48AB-811B-ADC8467D2584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9430152-99E9-4A30-9140-0BB96D12E1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>Lourival Moizés</t>
   </si>
   <si>
-    <t>Higor Pratz</t>
-  </si>
-  <si>
     <t>Maria Eduarda</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +190,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,11 +220,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +288,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -646,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="16">
         <v>2025</v>
@@ -681,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="16">
         <v>2025</v>
@@ -705,7 +729,7 @@
         <v>45866</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>11</v>
@@ -716,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="16">
         <v>2025</v>
@@ -751,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="16">
         <v>2025</v>
@@ -775,7 +799,7 @@
         <v>45866</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>11</v>
@@ -786,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="16">
         <v>2025</v>
@@ -810,7 +834,7 @@
         <v>45866</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>11</v>
@@ -821,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="16">
         <v>2025</v>
@@ -856,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="16">
         <v>2025</v>
@@ -880,7 +904,7 @@
         <v>45866</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>11</v>
@@ -891,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="16">
         <v>2025</v>
@@ -915,7 +939,7 @@
         <v>45866</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>11</v>
@@ -950,7 +974,7 @@
         <v>45866</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>11</v>
@@ -1020,7 +1044,7 @@
         <v>45866</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>11</v>
@@ -1055,7 +1079,7 @@
         <v>45866</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>11</v>
@@ -1090,7 +1114,7 @@
         <v>45866</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>11</v>
@@ -1160,7 +1184,7 @@
         <v>45866</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>11</v>
@@ -1230,7 +1254,7 @@
         <v>45866</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>11</v>
@@ -1300,7 +1324,7 @@
         <v>45866</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>11</v>
@@ -1370,7 +1394,7 @@
         <v>45866</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>11</v>
@@ -1381,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="16">
         <v>2025</v>
@@ -1416,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="16">
         <v>2025</v>
@@ -1440,7 +1464,7 @@
         <v>45866</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>11</v>
@@ -1451,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="16">
         <v>2025</v>
@@ -1486,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="16">
         <v>2025</v>
@@ -1521,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="16">
         <v>2025</v>
@@ -1556,7 +1580,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="16">
         <v>2025</v>
@@ -1580,7 +1604,7 @@
         <v>45866</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>11</v>
@@ -1591,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="16">
         <v>2025</v>
@@ -1615,7 +1639,7 @@
         <v>45866</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>11</v>
@@ -1720,7 +1744,7 @@
         <v>45866</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>11</v>
@@ -1790,7 +1814,7 @@
         <v>45866</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>11</v>
@@ -2097,7 +2121,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2156,7 +2180,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="16">
         <v>2025</v>
@@ -2191,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="16">
         <v>2025</v>
@@ -2226,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="16">
         <v>2025</v>
@@ -2260,8 +2284,8 @@
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>19</v>
+      <c r="B5" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="11">
         <v>2025</v>
@@ -2285,7 +2309,7 @@
         <v>45866</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>15</v>
@@ -2295,8 +2319,8 @@
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>19</v>
+      <c r="B6" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="11">
         <v>2025</v>
@@ -2320,7 +2344,7 @@
         <v>45866</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>15</v>
@@ -2330,8 +2354,8 @@
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
+      <c r="B7" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="11">
         <v>2025</v>
@@ -2355,7 +2379,7 @@
         <v>45866</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>15</v>
@@ -2365,8 +2389,8 @@
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
+      <c r="B8" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="11">
         <v>2025</v>
@@ -2390,7 +2414,7 @@
         <v>45866</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>15</v>
@@ -2400,8 +2424,8 @@
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
+      <c r="B9" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="11">
         <v>2025</v>
@@ -2425,7 +2449,7 @@
         <v>45866</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>15</v>
@@ -2435,8 +2459,8 @@
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
+      <c r="B10" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="11">
         <v>2025</v>
@@ -2460,7 +2484,7 @@
         <v>45866</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>15</v>
@@ -2470,8 +2494,8 @@
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
+      <c r="B11" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="11">
         <v>2025</v>
@@ -2495,7 +2519,7 @@
         <v>45866</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>15</v>
@@ -2506,7 +2530,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11">
         <v>2025</v>
@@ -2530,7 +2554,7 @@
         <v>45866</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>15</v>
@@ -2541,7 +2565,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="11">
         <v>2025</v>
@@ -2565,7 +2589,7 @@
         <v>45866</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>15</v>
